--- a/Assets/OriginalDatas/Model.xlsx
+++ b/Assets/OriginalDatas/Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t>病毒种类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -566,26 +566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Button A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emoticon - Laugh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战术方案ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -652,13 +632,67 @@
   <si>
     <t>UnlockNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie_2</t>
+  </si>
+  <si>
+    <t>Zombie_3</t>
+  </si>
+  <si>
+    <t>Zombie_4</t>
+  </si>
+  <si>
+    <t>Zombie_5</t>
+  </si>
+  <si>
+    <t>Zombie_6</t>
+  </si>
+  <si>
+    <t>Zombie_7</t>
+  </si>
+  <si>
+    <t>Human_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human_2</t>
+  </si>
+  <si>
+    <t>Human_3</t>
+  </si>
+  <si>
+    <t>Human_4</t>
+  </si>
+  <si>
+    <t>Human_5</t>
+  </si>
+  <si>
+    <t>Virus_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virus_2</t>
+  </si>
+  <si>
+    <t>Virus_3</t>
+  </si>
+  <si>
+    <t>Virus_4</t>
+  </si>
+  <si>
+    <t>Virus_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +727,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -714,11 +755,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1001,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,22 +1140,22 @@
         <v>39</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1190,22 +1235,22 @@
         <v>87</v>
       </c>
       <c r="Z2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AB2" t="s">
         <v>96</v>
       </c>
       <c r="AC2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AD2" t="s">
         <v>97</v>
       </c>
       <c r="AE2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1217,96 +1262,73 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <f>B3/100</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <f>C3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:G3" si="0">D3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <f>C3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:J3" si="1">D3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <f>F3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <f>G3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <f>H3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <f>I3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3" si="2">J3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3" si="3">K3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3" si="4">L3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3" si="5">M3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3" si="6">N3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3" si="7">O3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3" si="8">P3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3" si="9">Q3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3" si="10">R3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3" si="11">S3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3" si="12">T3</f>
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="Z3">
         <v>5</v>
@@ -1318,10 +1340,10 @@
         <v>98</v>
       </c>
       <c r="AC3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AD3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="AE3">
         <v>1</v>
@@ -1332,100 +1354,77 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B7" si="13">A4*10</f>
+        <f t="shared" ref="B4:B7" si="0">A4*10</f>
         <v>20</v>
       </c>
       <c r="C4">
-        <f>B4/100</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:G4" si="14">C4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H7" si="15">C4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I7" si="16">D4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J7" si="17">E4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="18">F4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L7" si="19">G4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M7" si="20">H4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N7" si="21">I4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O7" si="22">J4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P7" si="23">K4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q7" si="24">L4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R7" si="25">M4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S7" si="26">N4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T7" si="27">O4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U7" si="28">P4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V7" si="29">Q4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W7" si="30">R4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X7" si="31">S4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y7" si="32">T4</f>
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1437,13 +1436,13 @@
         <v>99</v>
       </c>
       <c r="AC4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AD4" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AE4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -1451,100 +1450,77 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C7" si="33">B5/100</f>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:G5" si="34">C5</f>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <f t="shared" si="34"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <f t="shared" si="34"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <f t="shared" si="34"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <f t="shared" si="15"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <f t="shared" si="16"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="17"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <f t="shared" si="18"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <f t="shared" si="19"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <f t="shared" si="20"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <f t="shared" si="21"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <f t="shared" si="22"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="P5">
-        <f t="shared" si="23"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="24"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <f t="shared" si="25"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <f t="shared" si="27"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <f t="shared" si="28"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <f t="shared" si="29"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="W5">
-        <f t="shared" si="30"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <f t="shared" si="31"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="32"/>
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1556,13 +1532,13 @@
         <v>100</v>
       </c>
       <c r="AC5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AD5" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AE5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
@@ -1570,100 +1546,77 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C6">
-        <f t="shared" si="33"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:G6" si="35">C6</f>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <f t="shared" si="35"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <f t="shared" si="35"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <f t="shared" si="35"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <f t="shared" si="15"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="I6">
-        <f t="shared" si="16"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <f t="shared" si="18"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <f t="shared" si="19"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <f t="shared" si="20"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <f t="shared" si="21"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <f t="shared" si="22"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="P6">
-        <f t="shared" si="23"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="24"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <f t="shared" si="25"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <f t="shared" si="26"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="T6">
-        <f t="shared" si="27"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <f t="shared" si="28"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <f t="shared" si="29"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="W6">
-        <f t="shared" si="30"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="X6">
-        <f t="shared" si="31"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="32"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1675,13 +1628,13 @@
         <v>101</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AE6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1689,100 +1642,77 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C7">
-        <f t="shared" si="33"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:G7" si="36">C7</f>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <f t="shared" si="36"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <f t="shared" si="36"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <f t="shared" si="36"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <f t="shared" si="16"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <f t="shared" si="20"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <f t="shared" si="22"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="P7">
-        <f t="shared" si="23"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="24"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <f t="shared" si="25"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <f t="shared" si="26"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="T7">
-        <f t="shared" si="27"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <f t="shared" si="28"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <f t="shared" si="29"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="W7">
-        <f t="shared" si="30"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="X7">
-        <f t="shared" si="31"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="32"/>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1794,13 +1724,13 @@
         <v>102</v>
       </c>
       <c r="AC7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AD7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1815,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1884,7 +1814,7 @@
         <v>51</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>94</v>
@@ -1916,7 +1846,7 @@
         <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
@@ -1946,7 +1876,7 @@
         <v>74</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S2" t="s">
         <v>96</v>
@@ -1993,26 +1923,25 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <f>B3/20</f>
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
         <v>50</v>
       </c>
-      <c r="L3">
-        <v>0.01</v>
-      </c>
-      <c r="M3">
-        <v>0.02</v>
-      </c>
-      <c r="N3">
-        <v>0.03</v>
-      </c>
-      <c r="O3">
-        <v>0.05</v>
-      </c>
       <c r="P3">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="Q3">
-        <v>7.0000000000000007E-2</v>
+        <v>70</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -2021,7 +1950,7 @@
         <v>98</v>
       </c>
       <c r="T3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -2062,26 +1991,25 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="7">B4/20</f>
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="N4">
-        <v>0.03</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="P4">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="Q4">
-        <v>7.0000000000000007E-2</v>
+        <v>70</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -2090,7 +2018,7 @@
         <v>99</v>
       </c>
       <c r="T4" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -2127,30 +2055,29 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5" si="8">I5+1</f>
+        <f t="shared" ref="J5" si="7">I5+1</f>
         <v>2</v>
       </c>
       <c r="K5">
-        <f t="shared" si="7"/>
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="N5">
-        <v>0.03</v>
+        <v>30</v>
       </c>
       <c r="O5">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="P5">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="Q5">
-        <v>7.0000000000000007E-2</v>
+        <v>70</v>
       </c>
       <c r="R5">
         <v>3</v>
@@ -2159,7 +2086,7 @@
         <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -2196,30 +2123,29 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6" si="9">I6+1</f>
+        <f t="shared" ref="J6" si="8">I6+1</f>
         <v>2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="7"/>
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="N6">
-        <v>0.03</v>
+        <v>30</v>
       </c>
       <c r="O6">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="P6">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="Q6">
-        <v>7.0000000000000007E-2</v>
+        <v>70</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -2228,7 +2154,7 @@
         <v>101</v>
       </c>
       <c r="T6" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -2265,30 +2191,29 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7" si="10">I7+1</f>
+        <f t="shared" ref="J7" si="9">I7+1</f>
         <v>2</v>
       </c>
       <c r="K7">
-        <f t="shared" si="7"/>
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="N7">
-        <v>0.03</v>
+        <v>30</v>
       </c>
       <c r="O7">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="P7">
-        <v>0.06</v>
+        <v>60</v>
       </c>
       <c r="Q7">
-        <v>7.0000000000000007E-2</v>
+        <v>70</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -2297,7 +2222,7 @@
         <v>102</v>
       </c>
       <c r="T7" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2313,590 +2238,584 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="S3" sqref="S3:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="17" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="29.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="3" customWidth="1"/>
+    <col min="11" max="17" width="16.25" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <f>A3*3000</f>
         <v>3000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <f>B3/10</f>
         <v>300</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f>B3/10</f>
         <v>300</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <f>C3/5</f>
         <v>60</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f>D3/5</f>
         <v>60</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>50</v>
       </c>
-      <c r="H3">
-        <f>B3/100</f>
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>0.01</v>
-      </c>
-      <c r="L3">
-        <v>0.01</v>
-      </c>
-      <c r="M3">
-        <v>0.01</v>
-      </c>
-      <c r="N3">
-        <v>0.01</v>
-      </c>
-      <c r="O3">
-        <v>0.01</v>
-      </c>
-      <c r="P3">
-        <v>0.01</v>
-      </c>
-      <c r="Q3">
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="3">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S3" t="s">
-        <v>103</v>
+      <c r="S3" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <f t="shared" ref="B4:B9" si="0">A4*3000</f>
         <v>6000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C9" si="1">B4/10</f>
         <v>600</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D9" si="2">B4/10</f>
         <v>600</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E9" si="3">C4/5</f>
         <v>120</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F9" si="4">D4/5</f>
         <v>120</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>50</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H9" si="5">B4/100</f>
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>0.2</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>0.01</v>
-      </c>
-      <c r="L4">
-        <v>0.01</v>
-      </c>
-      <c r="M4">
-        <v>0.01</v>
-      </c>
-      <c r="N4">
-        <v>0.01</v>
-      </c>
-      <c r="O4">
-        <v>0.01</v>
-      </c>
-      <c r="P4">
-        <v>0.01</v>
-      </c>
-      <c r="Q4">
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
         <v>2</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S4" t="s">
-        <v>104</v>
+      <c r="S4" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>50</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <v>0.3</v>
-      </c>
-      <c r="J5">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>0.01</v>
-      </c>
-      <c r="L5">
-        <v>0.01</v>
-      </c>
-      <c r="M5">
-        <v>0.01</v>
-      </c>
-      <c r="N5">
-        <v>0.01</v>
-      </c>
-      <c r="O5">
-        <v>0.01</v>
-      </c>
-      <c r="P5">
-        <v>0.01</v>
-      </c>
-      <c r="Q5">
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="R5" t="s">
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>10</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="S5" t="s">
-        <v>105</v>
+      <c r="S5" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>50</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="I6">
-        <v>0.4</v>
-      </c>
-      <c r="J6">
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>0.01</v>
-      </c>
-      <c r="L6">
-        <v>0.01</v>
-      </c>
-      <c r="M6">
-        <v>0.01</v>
-      </c>
-      <c r="N6">
-        <v>0.01</v>
-      </c>
-      <c r="O6">
-        <v>0.01</v>
-      </c>
-      <c r="P6">
-        <v>0.01</v>
-      </c>
-      <c r="Q6">
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="S6" t="s">
-        <v>106</v>
+      <c r="S6" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>50</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>0.01</v>
-      </c>
-      <c r="L7">
-        <v>0.01</v>
-      </c>
-      <c r="M7">
-        <v>0.01</v>
-      </c>
-      <c r="N7">
-        <v>0.01</v>
-      </c>
-      <c r="O7">
-        <v>0.01</v>
-      </c>
-      <c r="P7">
-        <v>0.01</v>
-      </c>
-      <c r="Q7">
+      <c r="K7" s="3">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3">
         <v>5</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S7" t="s">
-        <v>107</v>
+      <c r="S7" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>50</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="I8">
-        <v>0.6</v>
-      </c>
-      <c r="J8">
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>0.01</v>
-      </c>
-      <c r="L8">
-        <v>0.01</v>
-      </c>
-      <c r="M8">
-        <v>0.01</v>
-      </c>
-      <c r="N8">
-        <v>0.01</v>
-      </c>
-      <c r="O8">
-        <v>0.01</v>
-      </c>
-      <c r="P8">
-        <v>0.01</v>
-      </c>
-      <c r="Q8">
+      <c r="K8" s="3">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3">
+        <v>10</v>
+      </c>
+      <c r="O8" s="3">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="3">
         <v>6</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="S8" t="s">
-        <v>106</v>
+      <c r="S8" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <f t="shared" si="3"/>
         <v>420</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>50</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="I9">
-        <v>0.7</v>
-      </c>
-      <c r="J9">
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>0.01</v>
-      </c>
-      <c r="L9">
-        <v>0.01</v>
-      </c>
-      <c r="M9">
-        <v>0.01</v>
-      </c>
-      <c r="N9">
-        <v>0.01</v>
-      </c>
-      <c r="O9">
-        <v>0.01</v>
-      </c>
-      <c r="P9">
-        <v>0.01</v>
-      </c>
-      <c r="Q9">
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+      <c r="O9" s="3">
+        <v>10</v>
+      </c>
+      <c r="P9" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="3">
         <v>7</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S9" t="s">
-        <v>107</v>
+      <c r="S9" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/OriginalDatas/Model.xlsx
+++ b/Assets/OriginalDatas/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Virus" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,6 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -61,6 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -70,6 +73,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,6 +92,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -97,6 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,6 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -124,6 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -131,6 +139,32 @@
 1.干旱
 2.温和
 3.潮湿</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对感染速度有加成，千分位</t>
         </r>
       </text>
     </comment>
@@ -230,6 +264,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -239,10 +274,12 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-设定基础值，在各个关卡模式中由关卡指定</t>
+设定基础值，在各个关卡模式中由关卡指定
+病毒感染速度-抗感染强度即为此次被感染速度</t>
         </r>
       </text>
     </comment>
@@ -254,6 +291,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -263,10 +301,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-设定基础值，在各个关卡模式中由关卡指定</t>
+设定基础值，在各个关卡模式中由关卡指定
+千分数
+随机数大于这个数，才成功传染</t>
         </r>
       </text>
     </comment>
@@ -275,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="161">
   <si>
     <t>病毒种类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,10 +342,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>移动速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生命值恢复速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,10 +354,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击吸血百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VirusID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,9 +380,6 @@
   </si>
   <si>
     <t>对5类人的感染强度</t>
-  </si>
-  <si>
-    <t>InfectHuman_2</t>
   </si>
   <si>
     <t>InfectHuman_3</t>
@@ -795,10 +825,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>治愈力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
@@ -986,12 +1012,36 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>感染护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击吸血千分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfectHuman_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染阈值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommunicationThreshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,26 +1067,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1047,6 +1077,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1091,24 +1128,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1389,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AH1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1413,10 +1451,12 @@
     <col min="31" max="31" width="10.875" style="4" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.25" style="4" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="4"/>
+    <col min="34" max="34" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1424,246 +1464,251 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="Y1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AE2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>124</v>
+      <c r="AI2" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <f>A3*10</f>
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4">
         <v>10</v>
       </c>
       <c r="I3" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4">
         <v>10</v>
       </c>
       <c r="L3" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M3" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N3" s="4">
         <v>10</v>
@@ -1672,34 +1717,34 @@
         <v>10</v>
       </c>
       <c r="P3" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R3" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S3" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" s="4">
         <v>10</v>
       </c>
       <c r="U3" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V3" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="W3" s="4">
         <v>10</v>
       </c>
       <c r="X3" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="4">
         <v>5</v>
@@ -1708,14 +1753,14 @@
         <v>0</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AC3" s="4" t="str">
         <f t="shared" ref="AC3:AC7" si="0">AB3</f>
         <v>Germ</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AE3" s="4">
         <v>1</v>
@@ -1729,26 +1774,29 @@
       <c r="AH3" s="4">
         <v>1000</v>
       </c>
+      <c r="AI3" s="5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f>A4*10</f>
-        <v>20</v>
+        <f>FLOOR( B3*(1+5%),1)</f>
+        <v>210</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4">
         <v>10</v>
@@ -1757,34 +1805,34 @@
         <v>10</v>
       </c>
       <c r="I4" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K4" s="4">
         <v>10</v>
       </c>
       <c r="L4" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R4" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S4" s="4">
         <v>10</v>
@@ -1793,19 +1841,19 @@
         <v>10</v>
       </c>
       <c r="U4" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W4" s="4">
         <v>10</v>
       </c>
       <c r="X4" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="4">
         <v>5</v>
@@ -1814,14 +1862,14 @@
         <v>0</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AC4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Virus</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AE4" s="4">
         <v>2</v>
@@ -1835,83 +1883,86 @@
       <c r="AH4" s="4">
         <v>1000</v>
       </c>
+      <c r="AI4" s="5">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <f t="shared" ref="B5:B6" si="1">A5*10</f>
-        <v>30</v>
+        <f t="shared" ref="B5:B8" si="1">FLOOR( B4*(1+5%),1)</f>
+        <v>220</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
         <v>10</v>
       </c>
       <c r="G5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4">
         <v>10</v>
       </c>
       <c r="J5" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L5" s="4">
         <v>10</v>
       </c>
       <c r="M5" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N5" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O5" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R5" s="4">
         <v>10</v>
       </c>
       <c r="S5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U5" s="4">
         <v>10</v>
       </c>
       <c r="V5" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="W5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X5" s="4">
         <v>10</v>
       </c>
       <c r="Y5" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="4">
         <v>0</v>
@@ -1920,14 +1971,14 @@
         <v>2</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AC5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Mushroom</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AE5" s="4">
         <v>3</v>
@@ -1941,80 +1992,83 @@
       <c r="AH5" s="4">
         <v>2000</v>
       </c>
+      <c r="AI5" s="5">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="C6" s="4">
         <v>40</v>
       </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
       <c r="D6" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4">
         <v>10</v>
       </c>
       <c r="F6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J6" s="4">
         <v>10</v>
       </c>
       <c r="K6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L6" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4">
         <v>10</v>
       </c>
       <c r="N6" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O6" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P6" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="4">
         <v>10</v>
       </c>
       <c r="R6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S6" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U6" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V6" s="4">
         <v>10</v>
       </c>
       <c r="W6" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X6" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Y6" s="4">
         <v>10</v>
@@ -2026,14 +2080,14 @@
         <v>3</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AC6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Parasite</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE6" s="4">
         <v>4</v>
@@ -2047,80 +2101,83 @@
       <c r="AH6" s="4">
         <v>50000</v>
       </c>
+      <c r="AI6" s="5">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" ref="B7" si="2">A7*10</f>
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="C7" s="4">
         <v>50</v>
       </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
       <c r="D7" s="4">
         <v>10</v>
       </c>
       <c r="E7" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I7" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4">
         <v>10</v>
       </c>
       <c r="K7" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L7" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M7" s="4">
         <v>10</v>
       </c>
       <c r="N7" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O7" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P7" s="4">
         <v>10</v>
       </c>
       <c r="Q7" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R7" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S7" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="T7" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U7" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V7" s="4">
         <v>10</v>
       </c>
       <c r="W7" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X7" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y7" s="4">
         <v>10</v>
@@ -2132,14 +2189,14 @@
         <v>3</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AC7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Prion</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AE7" s="4">
         <v>5</v>
@@ -2153,83 +2210,86 @@
       <c r="AH7" s="4">
         <v>80000</v>
       </c>
+      <c r="AI7" s="5">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" ref="B8" si="3">A8*10</f>
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="C8" s="4">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4">
+        <v>30</v>
+      </c>
+      <c r="L8" s="4">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4">
         <v>60</v>
       </c>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4">
-        <v>10</v>
-      </c>
-      <c r="L8" s="4">
-        <v>10</v>
-      </c>
-      <c r="M8" s="4">
-        <v>10</v>
-      </c>
-      <c r="N8" s="4">
-        <v>10</v>
-      </c>
       <c r="O8" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P8" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R8" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S8" s="4">
         <v>10</v>
       </c>
       <c r="T8" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="U8" s="4">
         <v>10</v>
       </c>
       <c r="V8" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W8" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="X8" s="4">
         <v>10</v>
       </c>
       <c r="Y8" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Z8" s="4">
         <v>0</v>
@@ -2238,14 +2298,14 @@
         <v>3</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AC8" s="4" t="str">
         <f>AB8</f>
         <v>Nano_Virus</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AE8" s="4">
         <v>6</v>
@@ -2258,6 +2318,9 @@
       </c>
       <c r="AH8" s="4">
         <v>990000</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2272,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2297,126 +2360,126 @@
         <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="Q1" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="R2" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2424,67 +2487,61 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="C3" s="8">
-        <f>B3</f>
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="D3" s="8">
-        <f>C3/10</f>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8">
-        <f>D3</f>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" s="8">
-        <f>D3/2.5</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G3" s="8">
-        <f>E3/2.5</f>
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="H3" s="8">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="I3" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3" si="0">I3+1</f>
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="K3" s="8">
-        <v>5</v>
-      </c>
-      <c r="L3" s="8">
-        <v>10</v>
-      </c>
-      <c r="M3" s="8">
-        <v>20</v>
-      </c>
-      <c r="N3" s="8">
-        <v>30</v>
-      </c>
-      <c r="O3" s="8">
-        <v>50</v>
-      </c>
-      <c r="P3" s="8">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <v>20</v>
+      </c>
+      <c r="N3" s="4">
+        <v>30</v>
+      </c>
+      <c r="O3" s="4">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>30</v>
       </c>
       <c r="R3" s="8">
         <v>1</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U3" s="8">
         <v>1</v>
@@ -2495,67 +2552,61 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" ref="C4:C7" si="1">B4</f>
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D7" si="2">C4/10</f>
+        <v>60</v>
+      </c>
+      <c r="E4" s="8">
+        <v>88</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8">
+        <v>500</v>
+      </c>
+      <c r="H4" s="8">
+        <v>350</v>
+      </c>
+      <c r="I4" s="8">
+        <v>50</v>
+      </c>
+      <c r="J4" s="8">
         <v>200</v>
       </c>
-      <c r="E4" s="8">
-        <f t="shared" ref="E4:E7" si="3">D4</f>
-        <v>200</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F7" si="4">D4/2.5</f>
-        <v>80</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" ref="G4:G7" si="5">E4/2.5</f>
-        <v>80</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" ref="J4" si="6">I4+1</f>
-        <v>2</v>
-      </c>
       <c r="K4" s="8">
-        <v>6</v>
-      </c>
-      <c r="L4" s="8">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8">
-        <v>20</v>
-      </c>
-      <c r="N4" s="8">
-        <v>30</v>
-      </c>
-      <c r="O4" s="8">
-        <v>50</v>
-      </c>
-      <c r="P4" s="8">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>20</v>
       </c>
       <c r="R4" s="8">
         <v>2</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U4" s="8">
         <v>2</v>
@@ -2566,67 +2617,61 @@
         <v>3</v>
       </c>
       <c r="B5" s="8">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="3"/>
-        <v>300</v>
+        <v>88</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="I5" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" ref="J5" si="7">I5+1</f>
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="K5" s="8">
-        <v>7</v>
-      </c>
-      <c r="L5" s="8">
-        <v>10</v>
-      </c>
-      <c r="M5" s="8">
-        <v>20</v>
-      </c>
-      <c r="N5" s="8">
-        <v>30</v>
-      </c>
-      <c r="O5" s="8">
-        <v>50</v>
-      </c>
-      <c r="P5" s="8">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="L5" s="4">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4">
+        <v>30</v>
+      </c>
+      <c r="O5" s="4">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>30</v>
       </c>
       <c r="R5" s="8">
         <v>3</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U5" s="8">
         <v>3</v>
@@ -2637,67 +2682,61 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="3"/>
-        <v>400</v>
+        <v>88</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="4"/>
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="5"/>
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="H6" s="8">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="I6" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" ref="J6" si="8">I6+1</f>
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="K6" s="8">
-        <v>8</v>
-      </c>
-      <c r="L6" s="8">
-        <v>10</v>
-      </c>
-      <c r="M6" s="8">
-        <v>20</v>
-      </c>
-      <c r="N6" s="8">
-        <v>30</v>
-      </c>
-      <c r="O6" s="8">
-        <v>50</v>
-      </c>
-      <c r="P6" s="8">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="L6" s="4">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4">
+        <v>30</v>
+      </c>
+      <c r="N6" s="4">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4">
+        <v>20</v>
+      </c>
+      <c r="P6" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>10</v>
       </c>
       <c r="R6" s="8">
         <v>4</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U6" s="8">
         <v>4</v>
@@ -2708,67 +2747,61 @@
         <v>5</v>
       </c>
       <c r="B7" s="8">
-        <v>5000</v>
+        <v>740</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E7" s="8">
+        <v>88</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
         <v>500</v>
       </c>
-      <c r="E7" s="8">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="4"/>
+      <c r="H7" s="8">
+        <v>350</v>
+      </c>
+      <c r="I7" s="8">
+        <v>50</v>
+      </c>
+      <c r="J7" s="8">
         <v>200</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" ref="J7" si="9">I7+1</f>
-        <v>2</v>
       </c>
       <c r="K7" s="8">
         <v>9</v>
       </c>
-      <c r="L7" s="8">
-        <v>10</v>
-      </c>
-      <c r="M7" s="8">
-        <v>20</v>
-      </c>
-      <c r="N7" s="8">
-        <v>30</v>
-      </c>
-      <c r="O7" s="8">
-        <v>50</v>
-      </c>
-      <c r="P7" s="8">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>70</v>
+      <c r="L7" s="4">
+        <v>30</v>
+      </c>
+      <c r="M7" s="4">
+        <v>20</v>
+      </c>
+      <c r="N7" s="4">
+        <v>10</v>
+      </c>
+      <c r="O7" s="4">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>10</v>
       </c>
       <c r="R7" s="8">
         <v>5</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U7" s="8">
         <v>5</v>
@@ -2786,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2804,126 +2837,126 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>67</v>
+      <c r="I2" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="Q2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -2931,63 +2964,58 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>A3*3000</f>
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="C3" s="2">
-        <f>B3/10</f>
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2">
-        <f>B3/10</f>
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2">
-        <f>C3/5</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>D3/5</f>
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="G3" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2">
-        <v>10</v>
-      </c>
-      <c r="N3" s="2">
-        <v>10</v>
-      </c>
-      <c r="O3" s="2">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2">
-        <v>10</v>
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4">
+        <v>30</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4">
+        <v>20</v>
+      </c>
+      <c r="P3" s="4">
+        <v>30</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T3" s="5">
         <v>100</v>
@@ -2998,63 +3026,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B8" si="0">A4*3000</f>
-        <v>6000</v>
+        <v>1280</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C8" si="1">B4/10</f>
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D8" si="2">B4/10</f>
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E8" si="3">C4/5</f>
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F8" si="4">D4/5</f>
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="G4" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2">
-        <v>10</v>
-      </c>
-      <c r="N4" s="2">
-        <v>10</v>
-      </c>
-      <c r="O4" s="2">
-        <v>10</v>
-      </c>
-      <c r="P4" s="2">
-        <v>10</v>
+      <c r="K4" s="4">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4">
+        <v>20</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4">
+        <v>30</v>
+      </c>
+      <c r="P4" s="4">
+        <v>20</v>
       </c>
       <c r="Q4" s="2">
         <v>2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T4" s="5">
         <v>200</v>
@@ -3065,63 +3088,58 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>1280</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="1"/>
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="4"/>
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G5" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="2">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2">
-        <v>10</v>
-      </c>
-      <c r="M5" s="2">
-        <v>10</v>
-      </c>
-      <c r="N5" s="2">
-        <v>10</v>
-      </c>
-      <c r="O5" s="2">
-        <v>10</v>
-      </c>
-      <c r="P5" s="2">
-        <v>10</v>
+      <c r="K5" s="4">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4">
+        <v>30</v>
       </c>
       <c r="Q5" s="2">
         <v>3</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T5" s="5">
         <v>300</v>
@@ -3132,63 +3150,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>1280</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="4"/>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G6" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="K6" s="2">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2">
-        <v>10</v>
-      </c>
-      <c r="N6" s="2">
-        <v>10</v>
-      </c>
-      <c r="O6" s="2">
-        <v>10</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="K6" s="4">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4">
+        <v>30</v>
+      </c>
+      <c r="P6" s="4">
         <v>10</v>
       </c>
       <c r="Q6" s="2">
         <v>4</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T6" s="5">
         <v>400</v>
@@ -3199,63 +3212,58 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1280</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>1500</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="3"/>
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G7" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="K7" s="2">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10</v>
-      </c>
-      <c r="N7" s="2">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2">
-        <v>10</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="K7" s="4">
+        <v>30</v>
+      </c>
+      <c r="L7" s="4">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4">
+        <v>30</v>
+      </c>
+      <c r="O7" s="4">
+        <v>20</v>
+      </c>
+      <c r="P7" s="4">
         <v>10</v>
       </c>
       <c r="Q7" s="2">
         <v>5</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="T7" s="5">
         <v>500</v>
@@ -3266,63 +3274,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>1280</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>160</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="3"/>
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="4"/>
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="G8" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2">
         <v>6</v>
       </c>
-      <c r="K8" s="2">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2">
-        <v>10</v>
-      </c>
-      <c r="M8" s="2">
-        <v>10</v>
-      </c>
-      <c r="N8" s="2">
-        <v>10</v>
-      </c>
-      <c r="O8" s="2">
-        <v>10</v>
-      </c>
-      <c r="P8" s="2">
-        <v>10</v>
+      <c r="K8" s="4">
+        <v>30</v>
+      </c>
+      <c r="L8" s="4">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4">
+        <v>30</v>
+      </c>
+      <c r="O8" s="4">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4">
+        <v>20</v>
       </c>
       <c r="Q8" s="2">
         <v>6</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T8" s="5">
         <v>600</v>

--- a/Assets/OriginalDatas/Model.xlsx
+++ b/Assets/OriginalDatas/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Virus" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-越大，则越早开始研发</t>
+数值越大，则越晚开始研发</t>
         </r>
       </text>
     </comment>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="162">
   <si>
     <t>病毒种类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1036,12 +1036,16 @@
     <t>CommunicationThreshold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>EnviBoost_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,6 +1111,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1128,15 +1147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1146,7 +1162,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1429,897 +1449,897 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4:AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="18.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="22.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="24.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.25" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9" style="4"/>
-    <col min="29" max="29" width="10.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="19.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="22.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="21.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="24.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.25" style="9" customWidth="1"/>
+    <col min="28" max="28" width="9" style="9"/>
+    <col min="29" max="29" width="10.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Y1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>200</v>
       </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="C3" s="9">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9">
+        <v>100</v>
+      </c>
+      <c r="I3" s="9">
+        <v>100</v>
+      </c>
+      <c r="J3" s="9">
+        <v>100</v>
+      </c>
+      <c r="K3" s="9">
+        <v>100</v>
+      </c>
+      <c r="L3" s="9">
+        <v>100</v>
+      </c>
+      <c r="M3" s="9">
+        <v>100</v>
+      </c>
+      <c r="N3" s="9">
+        <v>10</v>
+      </c>
+      <c r="O3" s="9">
+        <v>10</v>
+      </c>
+      <c r="P3" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>30</v>
+      </c>
+      <c r="R3" s="9">
         <v>40</v>
       </c>
-      <c r="G3" s="4">
+      <c r="S3" s="9">
         <v>50</v>
       </c>
-      <c r="H3" s="4">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4">
-        <v>10</v>
-      </c>
-      <c r="L3" s="4">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4">
-        <v>30</v>
-      </c>
-      <c r="N3" s="4">
-        <v>10</v>
-      </c>
-      <c r="O3" s="4">
-        <v>10</v>
-      </c>
-      <c r="P3" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>30</v>
-      </c>
-      <c r="R3" s="4">
-        <v>40</v>
-      </c>
-      <c r="S3" s="4">
-        <v>50</v>
-      </c>
-      <c r="T3" s="4">
-        <v>10</v>
-      </c>
-      <c r="U3" s="4">
-        <v>20</v>
-      </c>
-      <c r="V3" s="4">
-        <v>30</v>
-      </c>
-      <c r="W3" s="4">
-        <v>10</v>
-      </c>
-      <c r="X3" s="4">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="4">
+      <c r="T3" s="9">
+        <v>10</v>
+      </c>
+      <c r="U3" s="9">
+        <v>20</v>
+      </c>
+      <c r="V3" s="9">
+        <v>30</v>
+      </c>
+      <c r="W3" s="9">
+        <v>10</v>
+      </c>
+      <c r="X3" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="9">
         <v>5</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="9">
         <v>0</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AC3" s="4" t="str">
+      <c r="AC3" s="9" t="str">
         <f t="shared" ref="AC3:AC7" si="0">AB3</f>
         <v>Germ</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="9">
         <v>1</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="9">
+        <v>400</v>
+      </c>
+      <c r="AG3" s="9">
         <v>1000</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AH3" s="9">
         <v>1000</v>
       </c>
-      <c r="AH3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <f>FLOOR( B3*(1+5%),1)</f>
         <v>210</v>
       </c>
-      <c r="C4" s="4">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" s="9">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
+        <v>30</v>
+      </c>
+      <c r="E4" s="9">
         <v>40</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <v>50</v>
       </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
-        <v>30</v>
-      </c>
-      <c r="M4" s="4">
-        <v>20</v>
-      </c>
-      <c r="N4" s="4">
-        <v>20</v>
-      </c>
-      <c r="O4" s="4">
-        <v>20</v>
-      </c>
-      <c r="P4" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <v>30</v>
+      </c>
+      <c r="J4" s="9">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10</v>
+      </c>
+      <c r="L4" s="9">
+        <v>30</v>
+      </c>
+      <c r="M4" s="9">
+        <v>20</v>
+      </c>
+      <c r="N4" s="9">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9">
+        <v>20</v>
+      </c>
+      <c r="P4" s="9">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="9">
         <v>40</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="9">
         <v>50</v>
       </c>
-      <c r="S4" s="4">
-        <v>10</v>
-      </c>
-      <c r="T4" s="4">
-        <v>10</v>
-      </c>
-      <c r="U4" s="4">
-        <v>30</v>
-      </c>
-      <c r="V4" s="4">
-        <v>20</v>
-      </c>
-      <c r="W4" s="4">
-        <v>10</v>
-      </c>
-      <c r="X4" s="4">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="4">
+      <c r="S4" s="9">
+        <v>10</v>
+      </c>
+      <c r="T4" s="9">
+        <v>10</v>
+      </c>
+      <c r="U4" s="9">
+        <v>30</v>
+      </c>
+      <c r="V4" s="9">
+        <v>20</v>
+      </c>
+      <c r="W4" s="9">
+        <v>10</v>
+      </c>
+      <c r="X4" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="9">
         <v>5</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="9">
         <v>0</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AC4" s="4" t="str">
+      <c r="AC4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Virus</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="9">
         <v>2</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="9">
+        <v>400</v>
+      </c>
+      <c r="AG4" s="9">
         <v>1000</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AH4" s="9">
         <v>1000</v>
       </c>
-      <c r="AH4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="AI4" s="5">
+      <c r="AI4" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <f t="shared" ref="B5:B8" si="1">FLOOR( B4*(1+5%),1)</f>
         <v>220</v>
       </c>
-      <c r="C5" s="4">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="9">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9">
         <v>40</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>50</v>
       </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4">
-        <v>20</v>
-      </c>
-      <c r="L5" s="4">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4">
-        <v>30</v>
-      </c>
-      <c r="N5" s="4">
-        <v>30</v>
-      </c>
-      <c r="O5" s="4">
-        <v>30</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="F5" s="9">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9">
+        <v>10</v>
+      </c>
+      <c r="J5" s="9">
+        <v>30</v>
+      </c>
+      <c r="K5" s="9">
+        <v>20</v>
+      </c>
+      <c r="L5" s="9">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9">
+        <v>30</v>
+      </c>
+      <c r="N5" s="9">
+        <v>30</v>
+      </c>
+      <c r="O5" s="9">
+        <v>30</v>
+      </c>
+      <c r="P5" s="9">
         <v>40</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="9">
         <v>50</v>
       </c>
-      <c r="R5" s="4">
-        <v>10</v>
-      </c>
-      <c r="S5" s="4">
-        <v>20</v>
-      </c>
-      <c r="T5" s="4">
-        <v>20</v>
-      </c>
-      <c r="U5" s="4">
-        <v>10</v>
-      </c>
-      <c r="V5" s="4">
-        <v>30</v>
-      </c>
-      <c r="W5" s="4">
-        <v>20</v>
-      </c>
-      <c r="X5" s="4">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="4">
+      <c r="R5" s="9">
+        <v>10</v>
+      </c>
+      <c r="S5" s="9">
+        <v>20</v>
+      </c>
+      <c r="T5" s="9">
+        <v>20</v>
+      </c>
+      <c r="U5" s="9">
+        <v>10</v>
+      </c>
+      <c r="V5" s="9">
+        <v>30</v>
+      </c>
+      <c r="W5" s="9">
+        <v>20</v>
+      </c>
+      <c r="X5" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="9">
         <v>0</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="9">
         <v>2</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AC5" s="4" t="str">
+      <c r="AC5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Mushroom</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="9">
         <v>3</v>
       </c>
-      <c r="AF5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>2000</v>
-      </c>
-      <c r="AI5" s="5">
+      <c r="AF5" s="9">
+        <v>400</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AI5" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="9">
         <v>40</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>50</v>
       </c>
-      <c r="E6" s="4">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4">
-        <v>30</v>
-      </c>
-      <c r="H6" s="4">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4">
-        <v>30</v>
-      </c>
-      <c r="J6" s="4">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4">
-        <v>30</v>
-      </c>
-      <c r="M6" s="4">
-        <v>10</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="E6" s="9">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9">
+        <v>30</v>
+      </c>
+      <c r="J6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="9">
+        <v>20</v>
+      </c>
+      <c r="L6" s="9">
+        <v>30</v>
+      </c>
+      <c r="M6" s="9">
+        <v>10</v>
+      </c>
+      <c r="N6" s="9">
         <v>40</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="9">
         <v>40</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="9">
         <v>50</v>
       </c>
-      <c r="Q6" s="4">
-        <v>10</v>
-      </c>
-      <c r="R6" s="4">
-        <v>20</v>
-      </c>
-      <c r="S6" s="4">
-        <v>30</v>
-      </c>
-      <c r="T6" s="4">
-        <v>20</v>
-      </c>
-      <c r="U6" s="4">
-        <v>30</v>
-      </c>
-      <c r="V6" s="4">
-        <v>10</v>
-      </c>
-      <c r="W6" s="4">
-        <v>20</v>
-      </c>
-      <c r="X6" s="4">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="4">
+      <c r="Q6" s="9">
+        <v>10</v>
+      </c>
+      <c r="R6" s="9">
+        <v>20</v>
+      </c>
+      <c r="S6" s="9">
+        <v>30</v>
+      </c>
+      <c r="T6" s="9">
+        <v>20</v>
+      </c>
+      <c r="U6" s="9">
+        <v>30</v>
+      </c>
+      <c r="V6" s="9">
+        <v>10</v>
+      </c>
+      <c r="W6" s="9">
+        <v>20</v>
+      </c>
+      <c r="X6" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="9">
         <v>0</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="9">
         <v>3</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AB6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AC6" s="4" t="str">
+      <c r="AC6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Parasite</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="9">
         <v>4</v>
       </c>
-      <c r="AF6" s="4">
-        <v>50000</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>50000</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>50000</v>
-      </c>
-      <c r="AI6" s="5">
+      <c r="AF6" s="9">
+        <v>400</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AI6" s="9">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="9">
         <v>50</v>
       </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="D7" s="9">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9">
+        <v>30</v>
+      </c>
+      <c r="G7" s="9">
         <v>40</v>
       </c>
-      <c r="H7" s="4">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4">
-        <v>20</v>
-      </c>
-      <c r="J7" s="4">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4">
-        <v>30</v>
-      </c>
-      <c r="L7" s="4">
-        <v>20</v>
-      </c>
-      <c r="M7" s="4">
-        <v>10</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="H7" s="9">
+        <v>30</v>
+      </c>
+      <c r="I7" s="9">
+        <v>20</v>
+      </c>
+      <c r="J7" s="9">
+        <v>10</v>
+      </c>
+      <c r="K7" s="9">
+        <v>30</v>
+      </c>
+      <c r="L7" s="9">
+        <v>20</v>
+      </c>
+      <c r="M7" s="9">
+        <v>10</v>
+      </c>
+      <c r="N7" s="9">
         <v>50</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="9">
         <v>50</v>
       </c>
-      <c r="P7" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>20</v>
-      </c>
-      <c r="R7" s="4">
-        <v>30</v>
-      </c>
-      <c r="S7" s="4">
+      <c r="P7" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>20</v>
+      </c>
+      <c r="R7" s="9">
+        <v>30</v>
+      </c>
+      <c r="S7" s="9">
         <v>40</v>
       </c>
-      <c r="T7" s="4">
-        <v>30</v>
-      </c>
-      <c r="U7" s="4">
-        <v>20</v>
-      </c>
-      <c r="V7" s="4">
-        <v>10</v>
-      </c>
-      <c r="W7" s="4">
-        <v>30</v>
-      </c>
-      <c r="X7" s="4">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="4">
+      <c r="T7" s="9">
+        <v>30</v>
+      </c>
+      <c r="U7" s="9">
+        <v>20</v>
+      </c>
+      <c r="V7" s="9">
+        <v>10</v>
+      </c>
+      <c r="W7" s="9">
+        <v>30</v>
+      </c>
+      <c r="X7" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="9">
         <v>0</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="9">
         <v>3</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AC7" s="4" t="str">
+      <c r="AC7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Prion</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="9">
         <v>5</v>
       </c>
-      <c r="AF7" s="4">
-        <v>80000</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>80000</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>80000</v>
-      </c>
-      <c r="AI7" s="5">
+      <c r="AF7" s="9">
+        <v>400</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AI7" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="9">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>50</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>40</v>
       </c>
-      <c r="E8" s="4">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4">
-        <v>30</v>
-      </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="J8" s="4">
-        <v>20</v>
-      </c>
-      <c r="K8" s="4">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4">
-        <v>10</v>
-      </c>
-      <c r="M8" s="4">
-        <v>20</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="E8" s="9">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <v>30</v>
+      </c>
+      <c r="I8" s="9">
+        <v>10</v>
+      </c>
+      <c r="J8" s="9">
+        <v>20</v>
+      </c>
+      <c r="K8" s="9">
+        <v>30</v>
+      </c>
+      <c r="L8" s="9">
+        <v>10</v>
+      </c>
+      <c r="M8" s="9">
+        <v>20</v>
+      </c>
+      <c r="N8" s="9">
         <v>60</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="9">
         <v>50</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="9">
         <v>40</v>
       </c>
-      <c r="Q8" s="4">
-        <v>30</v>
-      </c>
-      <c r="R8" s="4">
-        <v>20</v>
-      </c>
-      <c r="S8" s="4">
-        <v>10</v>
-      </c>
-      <c r="T8" s="4">
-        <v>30</v>
-      </c>
-      <c r="U8" s="4">
-        <v>10</v>
-      </c>
-      <c r="V8" s="4">
-        <v>20</v>
-      </c>
-      <c r="W8" s="4">
-        <v>30</v>
-      </c>
-      <c r="X8" s="4">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="4">
+      <c r="Q8" s="9">
+        <v>30</v>
+      </c>
+      <c r="R8" s="9">
+        <v>20</v>
+      </c>
+      <c r="S8" s="9">
+        <v>10</v>
+      </c>
+      <c r="T8" s="9">
+        <v>30</v>
+      </c>
+      <c r="U8" s="9">
+        <v>10</v>
+      </c>
+      <c r="V8" s="9">
+        <v>20</v>
+      </c>
+      <c r="W8" s="9">
+        <v>30</v>
+      </c>
+      <c r="X8" s="9">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="9">
         <v>0</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="9">
         <v>3</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB8" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AC8" s="4" t="str">
+      <c r="AC8" s="9" t="str">
         <f>AB8</f>
         <v>Nano_Virus</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AE8" s="9">
         <v>6</v>
       </c>
-      <c r="AF8" s="4">
-        <v>990000</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>990000</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>990000</v>
-      </c>
-      <c r="AI8" s="5">
+      <c r="AF8" s="9">
+        <v>400</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="AI8" s="9">
         <v>40</v>
       </c>
     </row>
@@ -2335,475 +2355,475 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="16.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.25" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="16.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>560</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>12000</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>60</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>88</v>
       </c>
-      <c r="F3" s="8">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7">
         <v>500</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>350</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>50</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>200</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="4">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4">
-        <v>20</v>
-      </c>
-      <c r="N3" s="4">
-        <v>30</v>
-      </c>
-      <c r="O3" s="4">
-        <v>10</v>
-      </c>
-      <c r="P3" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>30</v>
-      </c>
-      <c r="R3" s="8">
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3">
+        <v>30</v>
+      </c>
+      <c r="O3" s="3">
+        <v>10</v>
+      </c>
+      <c r="P3" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>30</v>
+      </c>
+      <c r="R3" s="7">
         <v>1</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>600</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>12000</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>60</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>88</v>
       </c>
-      <c r="F4" s="8">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7">
         <v>500</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>350</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>50</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>200</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>9</v>
       </c>
-      <c r="L4" s="4">
-        <v>10</v>
-      </c>
-      <c r="M4" s="4">
-        <v>30</v>
-      </c>
-      <c r="N4" s="4">
-        <v>20</v>
-      </c>
-      <c r="O4" s="4">
-        <v>10</v>
-      </c>
-      <c r="P4" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>20</v>
-      </c>
-      <c r="R4" s="8">
+      <c r="L4" s="3">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>20</v>
+      </c>
+      <c r="R4" s="7">
         <v>2</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>640</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>12000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>60</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>88</v>
       </c>
-      <c r="F5" s="8">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
         <v>500</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>350</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>50</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>200</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>9</v>
       </c>
-      <c r="L5" s="4">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4">
-        <v>30</v>
-      </c>
-      <c r="O5" s="4">
-        <v>20</v>
-      </c>
-      <c r="P5" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>30</v>
-      </c>
-      <c r="R5" s="8">
+      <c r="L5" s="3">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3">
+        <v>20</v>
+      </c>
+      <c r="P5" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>30</v>
+      </c>
+      <c r="R5" s="7">
         <v>3</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>700</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>12000</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>60</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>88</v>
       </c>
-      <c r="F6" s="8">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7">
         <v>500</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>350</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>50</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>200</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>9</v>
       </c>
-      <c r="L6" s="4">
-        <v>20</v>
-      </c>
-      <c r="M6" s="4">
-        <v>30</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10</v>
-      </c>
-      <c r="O6" s="4">
-        <v>20</v>
-      </c>
-      <c r="P6" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>10</v>
-      </c>
-      <c r="R6" s="8">
+      <c r="L6" s="3">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>30</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>10</v>
+      </c>
+      <c r="R6" s="7">
         <v>4</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>740</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>12000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>60</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>88</v>
       </c>
-      <c r="F7" s="8">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="7">
         <v>500</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>350</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>50</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>200</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>9</v>
       </c>
-      <c r="L7" s="4">
-        <v>30</v>
-      </c>
-      <c r="M7" s="4">
-        <v>20</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10</v>
-      </c>
-      <c r="O7" s="4">
-        <v>30</v>
-      </c>
-      <c r="P7" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>10</v>
-      </c>
-      <c r="R7" s="8">
+      <c r="L7" s="3">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3">
+        <v>20</v>
+      </c>
+      <c r="N7" s="3">
+        <v>10</v>
+      </c>
+      <c r="O7" s="3">
+        <v>30</v>
+      </c>
+      <c r="P7" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>10</v>
+      </c>
+      <c r="R7" s="7">
         <v>5</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <v>5</v>
       </c>
     </row>
@@ -2819,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2842,16 +2862,16 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2860,7 +2880,7 @@
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2893,7 +2913,7 @@
       <c r="S1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2904,16 +2924,16 @@
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2922,13 +2942,13 @@
       <c r="H2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -2937,8 +2957,8 @@
       <c r="M2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>59</v>
+      <c r="N2" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>60</v>
@@ -2955,7 +2975,7 @@
       <c r="S2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2990,34 +3010,34 @@
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
-        <v>10</v>
-      </c>
-      <c r="L3" s="4">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4">
-        <v>30</v>
-      </c>
-      <c r="N3" s="4">
-        <v>10</v>
-      </c>
-      <c r="O3" s="4">
-        <v>20</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3">
+        <v>30</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10</v>
+      </c>
+      <c r="O3" s="3">
+        <v>20</v>
+      </c>
+      <c r="P3" s="3">
         <v>30</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>149</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>100</v>
       </c>
     </row>
@@ -3052,34 +3072,34 @@
       <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="K4" s="4">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
-        <v>30</v>
-      </c>
-      <c r="M4" s="4">
-        <v>20</v>
-      </c>
-      <c r="N4" s="4">
-        <v>10</v>
-      </c>
-      <c r="O4" s="4">
-        <v>30</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="K4" s="3">
+        <v>10</v>
+      </c>
+      <c r="L4" s="3">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3">
+        <v>30</v>
+      </c>
+      <c r="P4" s="3">
         <v>20</v>
       </c>
       <c r="Q4" s="2">
         <v>2</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>150</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="4">
         <v>200</v>
       </c>
     </row>
@@ -3114,34 +3134,34 @@
       <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" s="4">
-        <v>20</v>
-      </c>
-      <c r="L5" s="4">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4">
-        <v>30</v>
-      </c>
-      <c r="N5" s="4">
-        <v>20</v>
-      </c>
-      <c r="O5" s="4">
-        <v>10</v>
-      </c>
-      <c r="P5" s="4">
+      <c r="K5" s="3">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3">
+        <v>30</v>
+      </c>
+      <c r="N5" s="3">
+        <v>20</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3">
         <v>30</v>
       </c>
       <c r="Q5" s="2">
         <v>3</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>151</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>300</v>
       </c>
     </row>
@@ -3176,34 +3196,34 @@
       <c r="J6" s="2">
         <v>4</v>
       </c>
-      <c r="K6" s="4">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4">
-        <v>30</v>
-      </c>
-      <c r="M6" s="4">
-        <v>10</v>
-      </c>
-      <c r="N6" s="4">
-        <v>20</v>
-      </c>
-      <c r="O6" s="4">
-        <v>30</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="K6" s="3">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>20</v>
+      </c>
+      <c r="O6" s="3">
+        <v>30</v>
+      </c>
+      <c r="P6" s="3">
         <v>10</v>
       </c>
       <c r="Q6" s="2">
         <v>4</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="4" t="s">
         <v>152</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>400</v>
       </c>
     </row>
@@ -3238,34 +3258,34 @@
       <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="K7" s="4">
-        <v>30</v>
-      </c>
-      <c r="L7" s="4">
-        <v>20</v>
-      </c>
-      <c r="M7" s="4">
-        <v>10</v>
-      </c>
-      <c r="N7" s="4">
-        <v>30</v>
-      </c>
-      <c r="O7" s="4">
-        <v>20</v>
-      </c>
-      <c r="P7" s="4">
+      <c r="K7" s="3">
+        <v>30</v>
+      </c>
+      <c r="L7" s="3">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3">
+        <v>30</v>
+      </c>
+      <c r="O7" s="3">
+        <v>20</v>
+      </c>
+      <c r="P7" s="3">
         <v>10</v>
       </c>
       <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>153</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>500</v>
       </c>
     </row>
@@ -3300,34 +3320,34 @@
       <c r="J8" s="2">
         <v>6</v>
       </c>
-      <c r="K8" s="4">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4">
-        <v>10</v>
-      </c>
-      <c r="M8" s="4">
-        <v>20</v>
-      </c>
-      <c r="N8" s="4">
-        <v>30</v>
-      </c>
-      <c r="O8" s="4">
-        <v>10</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="K8" s="3">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+      <c r="M8" s="3">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3">
         <v>20</v>
       </c>
       <c r="Q8" s="2">
         <v>6</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>154</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>600</v>
       </c>
     </row>
